--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/12_Balıkesir_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/12_Balıkesir_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9466FD30-ABCE-4099-87D4-A5B9EC1FF73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71EAABE4-B4A4-437F-B419-4E44801FF2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{C91698F9-7804-4011-BFA3-759D52064499}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{59E0AA36-22B2-4E9D-8EC2-A0DFF1D70F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="92" r:id="rId1"/>
@@ -963,13 +963,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00F3EC66-ACBE-41AA-838D-17F7EED5D520}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1807BF7D-EC23-4973-BF33-26DD92255D7A}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A56BBB14-3467-4319-90A0-8ED8AD415DEA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{88BE79B3-9D2E-467B-B82B-3A47818DC159}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{9DBAF86E-8091-45F0-8518-6C44B6EAEEF3}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{E63B8592-3746-43BA-8BF2-6EFD48D9A4E0}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7D021C29-D7F8-4C40-BBB2-D6203D4ABEF7}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{81C35722-C440-4DFD-925B-64788B5E7840}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{9772B35E-9510-4782-8AC6-9575EBE049E7}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{F6032002-F805-40E9-9EA5-FC13479CEFC0}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{9A7DAE9B-6CCB-46B5-9B44-E1D8DAF3151A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{926A6B2B-8934-4FF8-80AF-3497DD5B1B59}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{1F71ECF4-2991-40F8-AE76-17FD79F73A36}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{186BE652-452F-4B6E-8B22-2E758726011A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1339,7 +1339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BAC1F4-2A42-4635-ADA0-2D2DC687FD6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18C65D7-B76F-4B92-B9F3-BFAFEB9F9E13}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2598,18 +2598,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2699E0AF-0451-4F4B-B13E-24409A232901}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{FABEACA8-3FCE-4D91-88A7-8B51BF976E29}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A907D60-7944-4581-86C5-3A66EEA2CAAE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D6E8798-1A4E-434B-A1C6-340DD3DB2755}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DC925DEE-9DAD-4C3B-9E29-9D9482D6ABD6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5036539A-641D-42E1-B97D-C39E70C35FFE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CE876D3-3859-4ECD-B99A-1CB667AA5082}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{956D08E0-1C47-4C53-824D-5E15F5005EFF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C9EABF3-E29A-4E6C-AC9D-26F58EDE8BF5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{893E963F-B3D4-4B7C-8301-9802B1A8AA43}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B41754B-DB8D-41FD-B1E8-FAACDE8892A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F177299-BA25-47C1-A5AF-6CD616361732}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A9C3C6D-9C28-4009-AF74-19767E31D74E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2B982B18-1FB3-45AC-9FB3-A59D7B7FC2AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{680C6DE3-ED05-4FBB-924E-85D729DC70FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCDC2EDB-E915-49A9-9190-B9F3DEED7E12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{665A9902-97C8-4BDE-BB8F-B3F141FEC7B4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9964B7D0-3A9E-4597-8C85-7C6F7FA6460A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47FE5D04-00D0-4C48-A7C9-D50D6852B2E3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A1C5403-43FA-489D-9351-26BB849DD56D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C74495A3-092B-4D23-AB85-CF6C18CBBC5A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44D79EB6-F8F5-40D4-9486-FA400D2F2F49}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8555F083-B09A-4E09-9767-90974DEE172E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2302E79A-7965-4D79-99DA-E59F8DC76B44}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2622,7 +2622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C58C0AF-63BD-433A-B1AA-7F892A422C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACE450F-7151-4A09-9FC8-AA4884417F90}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3872,17 +3872,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96BE5342-F1C2-4D9C-8B0A-7C40BBA515AA}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{7B46B8B0-92A4-4289-A264-00FA1019115F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5481974C-9EA6-48B0-84F6-60429FA4BF9B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F18657D-9207-48EA-A195-0A63AEB38353}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1111CE5D-6618-4362-85B0-EB21CB96A08D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0578EF9D-B04F-44F2-B722-EDA61975B36C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94FD9A99-8B52-422E-BC4E-7127D78902E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B6C8A8BF-1384-45E8-A5C4-679F9A597DE1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F3C64093-A574-4B76-9A35-33084AD826DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6EB2790B-C56D-47A2-A015-32A1907FE7C6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{82D412A0-F06F-4825-B21A-058AB5BFFA68}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF0F8339-FD0D-48A7-8C68-198971D5C7BE}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8B6C5E29-370C-48E0-B461-9AC313904CC0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4C0F5CCD-BF76-4D2D-A065-CE079F7BE95E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDE6FEAB-75E2-4374-A65E-A38E2396BC7D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D5022C01-6140-42FF-BBEF-F027B64B13FC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ECF1A398-B751-41D3-9798-1500A22CF303}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A191310F-43CF-4FAC-B81E-D20738FB46FE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C63DCBA0-68C0-4AB5-96A2-FDB42BFC079F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35395B43-8381-4DD3-B6D2-B7A253C6CBCE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{93E94603-0EE9-44CF-B2A7-E7AFFBB10530}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{844D2617-EA49-4EC4-9AE5-8FA48ECFFE7F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3895,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A223797-AAF1-4E2B-B77A-F287CBB94F10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33E426B-ADB5-4849-BC1B-2463BCA5C23D}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5145,17 +5145,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5FC9545B-56AD-45A9-BDEF-6AFCF8955E10}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{9C33FAD7-C0AC-4626-B668-AF8CDCE24542}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1CE2A84A-C8BE-4EDC-986A-6087E0660EB4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{33FC0828-20EC-4E2B-B2F2-A80DC012865A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F82EB1D-5A53-4F44-8DBB-587FB81273EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D64FE10B-426D-49C9-85F8-1A36D8C92820}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74EC29A5-E866-4891-9C6C-C2018A072785}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5A7F98C5-5402-4AF2-A04A-04CC59381F28}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28C49171-FFFD-48F1-92DC-DDAB8D18A4E7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23BA8A7F-2551-4663-A895-D3273F6F981C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DDA03AC9-4091-4415-87AF-0445308F86FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25DEBD59-5AE8-4643-AC41-E1E4FF0A9E1E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C86301A6-429A-4A41-887E-2E27FF1D3E73}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1E27664F-DF57-4420-8EFC-16FCEEFCD662}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C1FA324-597F-45FB-AAF9-83DB65106A53}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B998D52B-0692-45A5-A5C8-81859DED5E2E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D73F2BFB-4B21-41B5-8E14-770DBCC5C0E4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C013D4E-22B8-4668-B3C6-B82FACE48CAD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDC0A490-8BF8-4B2D-AFF0-C1D0CC9D1126}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F476187-5145-4163-B3AC-FD5CEBA64E90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A61032BF-0507-4AB6-9BCD-6519D7A778CD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{687D4055-044D-4833-AFDE-0D6F58DA7CDB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5168,7 +5168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D85F4D6-3700-4470-8B78-356CBAF8862E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F6CA1C-8F52-44DF-8243-4EAB0B58F4D4}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6416,18 +6416,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A91AC261-4924-41EF-B347-062ECDF7C970}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C7ABEEC5-A563-4D67-B813-A8985CE08E66}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B256AB71-EB0A-4C41-9CAF-0787C2E4A73C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25DB1A2A-B336-4168-8939-F3E6907C4935}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19CBBFDE-FDB0-49FB-B077-696C66A5DD29}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9652A37D-6102-46D2-B6F9-6480166BEFE4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9CEE0ED9-726B-40F4-B687-3598FA099E8C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3315BA5-0F3E-4B43-9D5F-39DFDA6CC256}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0331FCB-35BE-4782-BAA9-80FD2DC30FB9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A57BAB40-270F-4F6E-942C-BE6A110AFCB9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0EF8C1D7-D24F-428E-A6AF-30C6652612CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FDC8C27D-F513-4F25-89D8-89E8DB92841A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F871F0B2-714E-4F92-A5A3-B56FB351A4B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21FFAB2B-2A97-4074-A25E-39C63524B06A}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1A94D8A0-5D5E-4B8C-A4D6-9E0B443D5A20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4276A895-0671-44B0-AA8E-88C02EEF204C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{553812B2-A5A6-4916-8434-1C9448C0FB43}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD9DA7C8-E11B-4A7E-A5FD-BB1E950140C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7AD6D2FA-589A-4EC7-82CA-43E2A0C8CE5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA7B1CF0-0AE8-4F80-9C93-8FC17DBB6E3C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{581FAD91-C16A-41B8-B947-DE0831F44CBA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A8D3F807-C82F-4D5E-B4DF-C652E52C222A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52E8EC5F-6CE2-44EA-95E2-41EA37E29C2F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7911C78D-FF45-4CA0-B1DA-3EF2B3C17536}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6440,7 +6440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46959E2F-A979-4FD8-8A3E-C5A675D94F3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A64DBB5-A2D7-4894-88B6-C3D26E711374}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7699,18 +7699,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C244264-9E1C-4A1E-800A-2EC3B1C15419}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{AC00B1FC-D826-4C75-91AE-16AF5CF0F61D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4811082A-7F09-4782-851F-5A3992DEFA45}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C6093D36-275A-447D-953A-1CFE75B45C0C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E3CA2E1-0A7B-45C0-BA52-9A3C41E650EF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9FC86223-DDC5-4793-A211-F026EAE53C97}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{052AB5B3-05D4-40F7-AA13-F79688223059}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{13772041-DB2C-461D-92BB-CAEA34096264}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF6B491A-0C11-45B2-9A14-ECAA51094387}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C0EF102D-10D6-4F62-8816-2A0521402F14}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{38AA3FEA-1127-45DD-9286-E1578F64EAB8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8AAAE0D-00C9-4FCD-83D6-652286963DE0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62D68DB5-D8FF-48F1-9AC4-38AC4D78F476}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{32400CB2-BA36-444B-8A06-A83171B26268}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AC41134F-D92F-4C19-9CC8-0304423D06B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7214BE2C-A624-4388-BDD5-2626A3AE6C33}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FD62F54F-6403-4AF6-93B5-D63AAFDA1AF2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB0D70C3-6538-4741-9588-A57542E852B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{039CF4D0-E9D1-47C1-AACF-5A8A98FFDCF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DCC95576-59C4-4B02-8888-4BE42B1F3870}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D11BDBE6-3399-43D7-8883-38A3DB9983EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D569FC02-08CC-4352-9522-14EB54F92279}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44D133A1-D815-40E7-B88C-CE12417F1BDB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FF84C77-C43C-4914-87B9-B4B6DD2B222A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7723,7 +7723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FE4BFC-4E8B-4C8B-ADB0-5D8182A9263C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2084E7-FB57-4E0D-8E82-EB23A55DB3C4}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8981,18 +8981,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C497A206-1795-49F1-8513-E107215153D3}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2F9C224E-9CA8-4C71-ACD6-2E0B3268A718}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{34B766FF-9056-41EB-8E23-98F49A8A0E7F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3138166E-CF53-42A3-9A16-7A9700E713D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{781A8C67-C7BF-4E27-98DF-C16BDAAEBDAE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{967358A3-1819-49FD-9367-6195E6F6634F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5AD21297-D60B-4DA6-B497-E4BD6AE7A1E0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F6488C8-D557-4A77-8F22-51E1A70149A5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31DC1271-4D2A-4777-A753-A3DDD5521863}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6CB94E09-BCCC-46D6-88C4-3E9217090FCE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D4D2D07-8A15-4FD3-BDFA-703205BC0689}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D26E2915-C3F4-4560-8334-F68CE472F13F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1674997A-7C2D-4B6D-98DA-D576262B9F83}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B69DFEBE-4087-4B8F-9D66-FA99890DB238}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6B319E77-B501-45AD-ACF6-D56A92E6A837}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD4C2760-C2C8-487A-9515-3C97FAB99778}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{25538C33-FEE4-4346-9445-F9C847CE3DBB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46D130BC-4E62-432E-B083-AA9D70553DF9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C0B7F2EB-EEDD-4457-86E1-C78A13174CFA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFA0B220-E918-434A-BC8A-A900AE68CA7D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{608614FB-C7D9-4B0E-8590-41631DE14183}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F0EA8C3-FFB4-410E-862C-C879E862A5E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82C84DA5-B0AE-4193-B0C1-3BB716D66038}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9ECFB43-D01F-4F57-8BE8-46DCC60DE239}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9005,7 +9005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F10264-3401-41CF-9BDE-078E0ECE6EE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5B2D66-CF4F-4665-91F8-2A6A60EB9B2E}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10265,18 +10265,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{783CC775-279A-4DAA-B5AE-AFECEC32D408}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{CA7C7B6F-45AA-4280-A8CE-5D9AC8A166EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3E8073B7-BE24-4B67-B371-09D3F3F31FF3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C4CBC41-40EC-4E96-9EE8-93353E982835}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A50A67D-C216-42E2-BEDC-E9D8B8AD0BAA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37B5104E-CFE1-4718-A3FB-A6B04C7349C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BC634CC-0EAC-4AAE-A906-112C7EFEB00F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1701645C-EDE1-4CF6-B7F2-CAB9C3891E59}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8AD11213-6FCE-4CF9-ADD5-17FDC12D384A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D597AD5E-D8B7-4D1F-8C89-5A082714D6B9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BF562C9-C611-4409-96BA-EE0A26AD2DA9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C878E2C6-9C3E-462B-ACC0-D3D2C7057F87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4519B5C-46E0-4931-9065-388CF949F83D}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8F20494F-A31C-4CC4-B4DE-2757D2993A21}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC889D94-C142-400F-B1D1-CAE452B17908}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E6D7CF9-EF8E-4A75-9E09-E141F1776545}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3BD8045-550D-4182-8436-C573CE4DBD68}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44E9DE50-5A44-4F5C-9AEC-23449A33E71E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C782616A-E760-4772-9500-A7CDED0A9F05}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D6BB501-6E15-4694-89B0-72EF8417F2D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F892509B-40B9-4BB6-BC88-D4539CDA9DC2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27339CC8-4B33-40DA-A129-B54192490ADA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D24D414-F051-40ED-A55A-04B1E4217FB3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DA47D192-2E3B-4BE7-B8D6-F60E63DD35D2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10289,7 +10289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A749AC-829D-4F51-AD2C-B5291EBF8467}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB45CFAD-155C-4CB1-B3FD-415DB243F2FF}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11549,18 +11549,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A89EB0E4-443F-4133-A898-905900AFF57E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1B4297E9-61F4-4C8C-90B2-838D56887B9E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{79E417E0-FDD3-48B5-891C-A70DEDF810AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2823F348-2C75-4C01-A7A6-FB0281EE28E3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75A10232-3B54-47AB-A700-AE4377E4A83C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5928F5A9-80D5-430D-8D90-7A6F0C4FEF2C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B0D00F0-EDDA-40BC-BCC2-7F469FF71CD8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4CE66919-7F0A-421D-93C4-589D1EC41786}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{968F3F92-1D44-4F4C-95E2-0EB14A5E7971}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{11E2FA00-F4AC-41B6-ACCE-FABC27C93A41}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E11D5AF-AE9B-41FC-82F4-54535E6FAED8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0B55D26-2214-4AE3-9160-EFC301DEC18B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C7E5F4B-C878-4983-BD3D-41BBEE773B0F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8A8496EC-6904-4084-82A9-6D135DCA7998}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA1AFBC2-B42E-454F-BB32-7263F98A6B41}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE5DE55C-4196-49E1-ACC2-632888989DAE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7C6756C-5FE0-4F2F-A011-69C82FBBD4D6}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3405B709-9F73-4EFE-98EA-FE9FAA6DBB7F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B30FBD51-980B-4C24-A150-24C60D4E86F5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1803AC1-F7C5-4118-BB9D-DEEB8461A09E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7922D15-129F-4D7A-96C6-DA9F77076B96}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{424CF5C8-AC1D-4D78-B175-F53617F0B224}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3582BAF4-7C0D-4A4B-A391-1DC5850D46E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2301F168-1427-4B21-809E-1B9A57E9EDB1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11573,7 +11573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76533D25-8BEF-4BBE-9C03-C043C849123F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820945C8-B988-4B3C-9F39-F5603B23FAF8}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12823,18 +12823,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14F1E7AB-4017-4742-BA25-2A5F24FEF7F7}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DA2ED419-455D-4C96-97DD-E0A8AF521D5E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87C90C11-53BD-45F1-8A0C-926FA51FEBEE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9A83F99-6718-48A8-B407-4544D377853E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A794B9BE-46D0-4C1B-AE2F-1B9EC66E1398}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9DDA5F87-9BB4-46E3-8D76-D5A94C2CDD93}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E1656F6C-966C-4EB6-A840-7EF735C50065}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{100F6EC7-B8FA-4F6F-B125-BAC3B121E571}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29499C6D-B715-4A96-9DDA-ADE8DB21E6D9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{869A9C47-F545-4556-A11C-743FEA748CDE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DB5A711E-2A1C-4A02-8CB0-7D0EFD11903D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB7F3212-8362-4769-8BE1-B147F94ECE2B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{789021FE-B96A-4A5C-8E2F-06A255FF4595}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1882D057-4BE9-4CFE-885A-26D226203947}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF0F2310-B42B-486F-9E9E-4FF878E9B042}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FBD92F0-D345-47E1-A137-559417C38AA7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24334660-01A7-4C37-B229-EC2715ED10BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C72A02A1-A8C4-46A9-9A02-C9BFA0DB7979}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{93FF719D-FD2C-4C8B-9273-52E4B98C298D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8241039A-AAFB-4A15-B445-0C3BE09B986E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{32A31A36-7622-492B-B4C5-904D44C64AA1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ECA54431-1B50-4706-A661-6476E52AB4A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AD2725C-835C-4B53-917F-B8931C952ABA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{88D5D421-A3D7-4F73-B538-D6FFB9AC6F53}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12847,7 +12847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0378075B-91F1-4DA4-B11A-BF125BF198F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3677DF23-3E97-454C-986A-F74AD7A1AA7F}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14099,18 +14099,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFF1D22A-9BDB-4A4F-B9E6-FE88C0CD68E6}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{F1E93437-B9F0-4483-9912-81A2419ABBF7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{85F8628C-3C20-45E5-893B-32A1831B52BF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31CA68C6-2105-4680-96FB-822113469605}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{428431BB-6438-4CDD-B71F-949F84394289}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E784CFB0-575A-459C-9427-4E4302A099CA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CF9BA488-DFB8-40DC-AA5A-40F27382F97A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAFC3612-880E-46E3-AA32-0EBE28F19C37}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FDE2AAA7-F7F5-4747-93A8-95F918C8AD2F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28A46951-1EA7-4149-9917-67642DA67FAF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9AF3353-5BCD-4094-A65B-E08E5498BAA5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A29A7BD8-0DB4-479E-86F5-356E6A3AA0A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83096332-AA21-454B-8736-0AAB0C14E0A4}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8569977B-2C21-45F2-B836-DE57B3111230}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{20EA3DF8-785B-4B08-84E7-F52B7067A629}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45702792-F52A-4F41-B197-C77C124FCAB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0DE5D412-41B9-44BF-8380-601510218D49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5C67B001-8B26-481D-9BF3-EF8901069BBF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2202E55A-CA92-4223-BA5C-38E61E8F56BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{090E7D8C-5AFD-4C8E-B9B8-004FF28F0E01}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F72C3A6A-105D-432A-ABF4-FDF2B28B216F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3DB6CE6-96F6-4F59-956B-39C0AACA598C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{46D3BDAE-B023-4FA6-BBFF-B9F8FB9C8888}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A1938BF-688D-4B9C-B83E-63E1C1DF89BE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14123,7 +14123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11443C0-A038-4FBE-BF43-B0BC162193C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50EA42FA-E4AF-4B92-9DD5-18F9461A61C9}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15373,18 +15373,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{153EEF4F-2332-4B7E-94E2-4FE48DF7D0AE}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{E67B9AAF-C587-44A7-81E6-C6283FAC0E42}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB3195A6-56C1-420E-8E05-4B84CFB0D605}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A7420A2-AAC3-44C7-B960-4DA90C2ACD59}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49DAE953-03C4-47AE-9526-B82562208D88}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94CA86BA-7847-4804-B533-495721290B09}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BF0D92C0-CD98-44D1-ACB6-486182AD4E44}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BF71B30-5A9D-487A-9C97-8A33E176BEC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E29B0F36-2C7B-442A-9E97-605A023FAC70}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{695A20AF-572A-4016-A4ED-E0F7F6979A39}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B04D617B-4223-4150-A5AE-2025A195DFB6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02621209-9189-4A19-BE52-EB7B00040B7F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{590A471D-D071-4258-BEBE-3EA0A86CE2B2}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{293A1E7A-D9E4-40E9-8BD4-DED4F172928E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BBD324C-A9CE-4C66-80F6-904D980DFF5A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ABD8A260-7275-4EAE-BE78-C60EC152579D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F47EDC36-95B8-449F-8E7F-D8FC20BEF85B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ED94AF4C-3D60-4155-B11E-DF1163D68243}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{812A7C87-CC63-46FA-BBB8-69101CF900EF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{73D3A499-3F36-49B4-8C26-8D67F0746A9B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6D4EB4B-4684-4AF7-9D03-439453F92B53}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC896DC2-F2EC-4705-BF4E-8A70C4A8278C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{648B88DC-FB6F-4DE7-9A58-728706A0C324}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68307848-07FF-466C-9C32-99BB2149DC17}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15397,7 +15397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{315CF79B-157B-4D46-8618-0E8B0385FEBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773C9AA2-2139-407D-A962-D26D0604EBE9}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16647,18 +16647,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CD4729C-B10A-4AD8-ACDE-D4856EB7F041}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{765B6F38-B496-42E4-B133-1D1D6A829F7C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EF29DDB1-7949-4BB3-A15E-A4955A24EF6D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0EEFE64F-FDB4-4500-8A13-45D6DF4AEDB9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D957CECA-37F5-448C-80CA-85A15BB557CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5270CE6-403A-4E5A-A26A-4E6249D0D200}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4CA5104-AE44-4BA7-9A15-71336CB038BE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AAA3D56-F66C-4F80-9E91-D4612D067824}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9107219-8020-4A70-B957-D6BE17EA024F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A0F9A6E1-19CF-45BC-B3F5-DDBE276BC6DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{336EE27C-CBD5-4154-B996-249508BE670A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8862E2A2-B627-4005-A8EE-EAB73E70C696}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4896242-6679-4B6D-BA7E-DEC5159B56D3}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{216D8887-C4E3-44D5-A0B0-68C8833E2F9B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9BE4D880-37B3-4DE1-9B2B-AEA4CAF7F058}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{503BBC4A-EC46-45CF-B048-09CF487E6237}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FBA6A94A-C63F-47C9-8C4A-F8977A0B9CB5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{236EB200-167C-4D43-A5AB-B223431363F7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8EA9AC9C-BE7F-4A7C-9D58-5124C27D1312}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD4B804F-5413-40B3-89A8-35D80A94CB0B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{610F98AF-0C11-4712-9C50-D63A2B9BC541}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E2AAC786-03A0-468A-A981-674D0322D28F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8389B0D-11A8-419D-9688-3E2D56DD349F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DAB5410E-E1E8-4C8C-A331-1A4CD2F6B2C2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
